--- a/teaching/traditional_assets/database/data/singapore/singapore_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_insurance_life.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.06029189207994851</v>
+        <v>0.08345838817582012</v>
       </c>
       <c r="H2">
-        <v>0.06029189207994851</v>
+        <v>0.08345838817582012</v>
       </c>
       <c r="I2">
-        <v>0.07737733444765346</v>
+        <v>0.05710884382257023</v>
       </c>
       <c r="J2">
-        <v>0.05499915392683963</v>
+        <v>0.04840126996822949</v>
       </c>
       <c r="K2">
-        <v>617.2</v>
+        <v>590.7</v>
       </c>
       <c r="L2">
-        <v>0.05368170195000609</v>
+        <v>0.0495217176247684</v>
       </c>
       <c r="M2">
-        <v>171</v>
+        <v>203.7</v>
       </c>
       <c r="N2">
-        <v>0.02234096758599966</v>
+        <v>0.02844217316633854</v>
       </c>
       <c r="O2">
-        <v>0.2770576798444588</v>
+        <v>0.3448450990350431</v>
       </c>
       <c r="P2">
-        <v>171</v>
+        <v>203.7</v>
       </c>
       <c r="Q2">
-        <v>0.02234096758599966</v>
+        <v>0.02844217316633854</v>
       </c>
       <c r="R2">
-        <v>0.2770576798444588</v>
+        <v>0.3448450990350431</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3929.4</v>
+        <v>5163.8</v>
       </c>
       <c r="V2">
-        <v>0.5133719183182869</v>
+        <v>0.7210097879054441</v>
       </c>
       <c r="W2">
-        <v>0.1128027049255232</v>
+        <v>0.09910741250293616</v>
       </c>
       <c r="X2">
-        <v>0.07187545824425184</v>
+        <v>0.0563472786040982</v>
       </c>
       <c r="Y2">
-        <v>0.04092724668127133</v>
+        <v>0.04276013389883795</v>
       </c>
       <c r="Z2">
-        <v>3.566402158837127</v>
+        <v>4.241856330014225</v>
       </c>
       <c r="AA2">
-        <v>0.1961491012988963</v>
+        <v>0.2053112333954617</v>
       </c>
       <c r="AB2">
-        <v>0.06986391172928573</v>
+        <v>0.05479078684280568</v>
       </c>
       <c r="AC2">
-        <v>0.1262851895696106</v>
+        <v>0.150520446552656</v>
       </c>
       <c r="AD2">
-        <v>289.1</v>
+        <v>286.9</v>
       </c>
       <c r="AE2">
-        <v>42.30917460774526</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>331.4091746077453</v>
+        <v>286.9</v>
       </c>
       <c r="AG2">
-        <v>-3597.990825392255</v>
+        <v>-4876.900000000001</v>
       </c>
       <c r="AH2">
-        <v>0.04150132037435476</v>
+        <v>0.03851627107722049</v>
       </c>
       <c r="AI2">
-        <v>0.05203220090633379</v>
+        <v>0.04432736430635169</v>
       </c>
       <c r="AJ2">
-        <v>-0.8870547291765651</v>
+        <v>-2.134310722100658</v>
       </c>
       <c r="AK2">
-        <v>-1.474641295191117</v>
+        <v>-3.727092090179598</v>
       </c>
       <c r="AL2">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="AM2">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="AN2">
-        <v>0.3053443177017322</v>
+        <v>0.3926371972081565</v>
       </c>
       <c r="AO2">
-        <v>67.43181818181819</v>
+        <v>52.00000000000001</v>
       </c>
       <c r="AP2">
-        <v>-3.80015930016081</v>
+        <v>-6.67428493225674</v>
       </c>
       <c r="AQ2">
-        <v>67.43181818181819</v>
+        <v>52.00000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -719,40 +719,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.06029189207994851</v>
+        <v>0.08345838817582012</v>
       </c>
       <c r="H3">
-        <v>0.06029189207994851</v>
+        <v>0.08345838817582012</v>
       </c>
       <c r="I3">
-        <v>0.07737733444765346</v>
+        <v>0.05710884382257023</v>
       </c>
       <c r="J3">
-        <v>0.05499915392683963</v>
+        <v>0.04840126996822949</v>
       </c>
       <c r="K3">
-        <v>617.2</v>
+        <v>590.7</v>
       </c>
       <c r="L3">
-        <v>0.05368170195000609</v>
+        <v>0.0495217176247684</v>
       </c>
       <c r="M3">
-        <v>171</v>
+        <v>203.7</v>
       </c>
       <c r="N3">
-        <v>0.02234096758599966</v>
+        <v>0.02844217316633854</v>
       </c>
       <c r="O3">
-        <v>0.2770576798444588</v>
+        <v>0.3448450990350431</v>
       </c>
       <c r="P3">
-        <v>171</v>
+        <v>203.7</v>
       </c>
       <c r="Q3">
-        <v>0.02234096758599966</v>
+        <v>0.02844217316633854</v>
       </c>
       <c r="R3">
-        <v>0.2770576798444588</v>
+        <v>0.3448450990350431</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3929.4</v>
+        <v>5163.8</v>
       </c>
       <c r="V3">
-        <v>0.5133719183182869</v>
+        <v>0.7210097879054441</v>
       </c>
       <c r="W3">
-        <v>0.1128027049255232</v>
+        <v>0.09910741250293616</v>
       </c>
       <c r="X3">
-        <v>0.07187545824425184</v>
+        <v>0.0563472786040982</v>
       </c>
       <c r="Y3">
-        <v>0.04092724668127133</v>
+        <v>0.04276013389883795</v>
       </c>
       <c r="Z3">
-        <v>3.566402158837127</v>
+        <v>4.241856330014225</v>
       </c>
       <c r="AA3">
-        <v>0.1961491012988963</v>
+        <v>0.2053112333954617</v>
       </c>
       <c r="AB3">
-        <v>0.06986391172928573</v>
+        <v>0.05479078684280568</v>
       </c>
       <c r="AC3">
-        <v>0.1262851895696106</v>
+        <v>0.150520446552656</v>
       </c>
       <c r="AD3">
-        <v>289.1</v>
+        <v>286.9</v>
       </c>
       <c r="AE3">
-        <v>42.30917460774526</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>331.4091746077453</v>
+        <v>286.9</v>
       </c>
       <c r="AG3">
-        <v>-3597.990825392255</v>
+        <v>-4876.900000000001</v>
       </c>
       <c r="AH3">
-        <v>0.04150132037435476</v>
+        <v>0.03851627107722049</v>
       </c>
       <c r="AI3">
-        <v>0.05203220090633379</v>
+        <v>0.04432736430635169</v>
       </c>
       <c r="AJ3">
-        <v>-0.8870547291765651</v>
+        <v>-2.134310722100658</v>
       </c>
       <c r="AK3">
-        <v>-1.474641295191117</v>
+        <v>-3.727092090179598</v>
       </c>
       <c r="AL3">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="AM3">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="AN3">
-        <v>0.3053443177017322</v>
+        <v>0.3926371972081565</v>
       </c>
       <c r="AO3">
-        <v>67.43181818181819</v>
+        <v>52.00000000000001</v>
       </c>
       <c r="AP3">
-        <v>-3.80015930016081</v>
+        <v>-6.67428493225674</v>
       </c>
       <c r="AQ3">
-        <v>67.43181818181819</v>
+        <v>52.00000000000001</v>
       </c>
     </row>
   </sheetData>
